--- a/revenue-streamlit/tenancy_list_scenario_2023_v01A.xlsx
+++ b/revenue-streamlit/tenancy_list_scenario_2023_v01A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8db03e8e420626a2/Office/AMG/Development/office/revenue-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1301BD79-C433-B944-94AF-2A1751E103DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{1301BD79-C433-B944-94AF-2A1751E103DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D88E620C-12B5-724E-BDE4-00CA5E8E5AA5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="33260" windowHeight="21160" tabRatio="765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32480" yWindow="860" windowWidth="35400" windowHeight="38240" tabRatio="765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="2" r:id="rId1"/>
@@ -1605,14 +1605,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1715,14 +1715,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2455,19 +2455,19 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>246807</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390372</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>132619</xdr:rowOff>
+      <xdr:rowOff>110532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>288616</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200268</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>77683</xdr:rowOff>
+      <xdr:rowOff>55596</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Product_Type">
@@ -2490,7 +2490,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2500,8 +2500,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14520258" y="514743"/>
-              <a:ext cx="1828800" cy="2428869"/>
+              <a:off x="17143329" y="486010"/>
+              <a:ext cx="1830852" cy="2385673"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2533,19 +2533,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>234894</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>389502</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>86989</xdr:rowOff>
+      <xdr:rowOff>9685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>276703</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>32053</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>199398</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142488</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Group">
@@ -2568,7 +2568,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2578,8 +2578,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14508345" y="3143980"/>
-              <a:ext cx="1828800" cy="2428869"/>
+              <a:off x="17142459" y="3013511"/>
+              <a:ext cx="1830852" cy="2385673"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2611,19 +2611,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>222981</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>377589</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>131271</xdr:rowOff>
+      <xdr:rowOff>76054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>264790</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>187485</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>157345</xdr:rowOff>
+      <xdr:rowOff>102128</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="End">
@@ -2646,7 +2646,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2656,8 +2656,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14496432" y="5672067"/>
-              <a:ext cx="1828800" cy="4038375"/>
+              <a:off x="17130546" y="5520489"/>
+              <a:ext cx="1830852" cy="3968596"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3060,7 +3060,7 @@
   <dimension ref="B4:J7"/>
   <sheetViews>
     <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="I4" t="s">
         <v>122</v>
@@ -3086,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>48579</v>
+        <v>48944</v>
       </c>
       <c r="I5" t="s">
         <v>120</v>
@@ -3135,8 +3135,8 @@
   <dimension ref="A1:N152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L71" sqref="L71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9327,11 +9327,11 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="G1:G44 G61:G65">
-    <cfRule type="expression" dxfId="21" priority="33">
+    <cfRule type="expression" dxfId="21" priority="34">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G1)),NOT(ISNUMBER(SEARCH("-&gt;",G1))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="33">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G1)),(ISNUMBER(SEARCH("-&gt;",G1))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="34">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G1)),NOT(ISNUMBER(SEARCH("-&gt;",G1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G56 G58:G1048576">
@@ -9387,11 +9387,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G128:G131">
-    <cfRule type="expression" dxfId="7" priority="45">
+    <cfRule type="expression" dxfId="7" priority="46">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G128)),NOT(ISNUMBER(SEARCH("-&gt;",G128))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="45">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G128)),(ISNUMBER(SEARCH("-&gt;",G128))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="46">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G128)),NOT(ISNUMBER(SEARCH("-&gt;",G128))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G128:G151">
